--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>WFD</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>MCM</t>
@@ -113,13 +116,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -586,141 +595,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,37 +1249,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" ht="14.25" spans="1:3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -55,6 +55,9 @@
     <t>SWT</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>WE</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>WFD</t>
-  </si>
-  <si>
-    <t>√</t>
   </si>
   <si>
     <t>MCM</t>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1173,91 +1173,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="14.25" spans="1:4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:3">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1">

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1210,11 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1221,8 +1224,11 @@
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:5">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1230,6 +1236,9 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1256,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" ht="14.25" spans="1:5">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1266,8 +1275,11 @@
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:5">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1280,11 +1292,15 @@
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:5">
       <c r="A25" t="s">
         <v>20</v>
       </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:5">
+    <row r="24" ht="14.25" spans="1:7">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1293,6 +1293,9 @@
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1214,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:5">
+    <row r="15" ht="14.25" spans="1:8">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1225,6 +1225,9 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1265,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:5">
+    <row r="23" ht="14.25" spans="1:8">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1278,8 +1281,11 @@
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:8">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1296,6 +1302,9 @@
         <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:5">
+    <row r="14" ht="14.25" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1213,8 +1213,11 @@
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:9">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1230,8 +1233,11 @@
       <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:5">
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1242,6 +1248,9 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:9">
+    <row r="14" ht="14.25" spans="1:10">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1216,8 +1216,11 @@
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:9">
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1236,8 +1239,11 @@
       <c r="I15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:9">
+      <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:10">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1251,6 +1257,9 @@
         <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1294,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:8">
+    <row r="24" ht="14.25" spans="1:11">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1314,6 +1323,12 @@
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:11">
+    <row r="24" ht="14.25" spans="1:14">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1329,6 +1329,15 @@
         <v>8</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/pte.xlsx
+++ b/pte.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>口语</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:10">
+    <row r="15" ht="14.25" spans="1:15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1240,6 +1240,21 @@
         <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1286,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:8">
+    <row r="23" ht="14.25" spans="1:15">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1302,8 +1317,29 @@
       <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:14">
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1338,6 +1374,9 @@
         <v>8</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
